--- a/Vale/Docs/DataPA/PA_Summary_2022.xlsx
+++ b/Vale/Docs/DataPA/PA_Summary_2022.xlsx
@@ -1912,7 +1912,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="191">
   <si>
     <t xml:space="preserve">Unit</t>
   </si>
@@ -2514,10 +2514,19 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Emergency Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penstock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 - LGS#1 shut down for check A1G1 CB kirk key. Outage 3.02 hrs
 - LGS#1 was tripped via Emergency Stop HMI Larona. Outage 0.01 hrs
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1-G1</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -2536,9 +2545,15 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">FCE Grid; Auxiliary Grid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 - LGS#1 put standby for adding a delay timer (3 second) on the penstock gate limit switch.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Delay Timer</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -2579,6 +2594,9 @@
 - LGS#2 prepare split to FCE grid
 - LGS#2 prepare split to aux grid
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbine, Penstock</t>
   </si>
 </sst>
 </file>
@@ -27238,10 +27256,10 @@
   </sheetPr>
   <dimension ref="A1:V365"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="Q246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R277" activeCellId="0" sqref="R277"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="Q331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="U358" activeCellId="0" sqref="U358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42376,6 +42394,18 @@
       <c r="Q277" s="46" t="s">
         <v>169</v>
       </c>
+      <c r="R277" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S277" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T277" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U277" s="38" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="45" t="n">
@@ -42588,6 +42618,18 @@
       <c r="Q281" s="46" t="s">
         <v>170</v>
       </c>
+      <c r="R281" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S281" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T281" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U281" s="38" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="45" t="n">
@@ -42906,6 +42948,18 @@
       <c r="Q287" s="46" t="s">
         <v>171</v>
       </c>
+      <c r="R287" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S287" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="T287" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U287" s="38" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="45" t="n">
@@ -42959,6 +43013,18 @@
       <c r="Q288" s="46" t="s">
         <v>172</v>
       </c>
+      <c r="R288" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="S288" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="T288" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="U288" s="38" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="45" t="n">
@@ -43275,7 +43341,19 @@
         <v>0</v>
       </c>
       <c r="Q294" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="R294" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="S294" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="T294" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="U294" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43699,7 +43777,19 @@
         <v>0</v>
       </c>
       <c r="Q302" s="46" t="s">
-        <v>174</v>
+        <v>177</v>
+      </c>
+      <c r="R302" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S302" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="T302" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U302" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44123,7 +44213,19 @@
         <v>0</v>
       </c>
       <c r="Q310" s="46" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="R310" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S310" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T310" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U310" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44229,7 +44331,19 @@
         <v>0</v>
       </c>
       <c r="Q312" s="46" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="R312" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S312" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T312" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U312" s="38" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44388,7 +44502,19 @@
         <v>0</v>
       </c>
       <c r="Q315" s="46" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="R315" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S315" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T315" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="U315" s="38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44441,7 +44567,19 @@
         <v>0</v>
       </c>
       <c r="Q316" s="46" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="R316" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S316" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T316" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U316" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44494,7 +44632,7 @@
         <v>0</v>
       </c>
       <c r="Q317" s="46" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44814,6 +44952,18 @@
       <c r="Q323" s="46" t="s">
         <v>171</v>
       </c>
+      <c r="R323" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S323" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="T323" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U323" s="38" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="45" t="n">
@@ -45607,7 +45757,19 @@
         <v>0</v>
       </c>
       <c r="Q338" s="46" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="R338" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S338" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="T338" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U338" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45819,7 +45981,19 @@
         <v>0</v>
       </c>
       <c r="Q342" s="46" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="R342" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="S342" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="T342" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="U342" s="38" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45925,7 +46099,19 @@
         <v>0</v>
       </c>
       <c r="Q344" s="46" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="R344" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S344" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T344" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U344" s="38" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46084,7 +46270,19 @@
         <v>0</v>
       </c>
       <c r="Q347" s="46" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="R347" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S347" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T347" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U347" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46243,7 +46441,19 @@
         <v>0</v>
       </c>
       <c r="Q350" s="46" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="R350" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S350" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="T350" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="U350" s="38" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46616,6 +46826,18 @@
       <c r="Q357" s="46" t="s">
         <v>170</v>
       </c>
+      <c r="R357" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S357" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T357" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U357" s="38" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="45" t="n">
@@ -47043,7 +47265,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7 R15 R28 R36 R41 R43 R48 R53 R77 R82:R86 R91 R96 R119 R137 R143:R148 R154:R157 R215 R222 R240 R242 R256 R259:R260" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7 R15 R28 R36 R41 R43 R48 R53 R77 R82:R86 R91 R96 R119 R137 R143:R148 R154:R157 R215 R222 R240 R242 R256 R259:R260 R277 R281 R287:R288 R294 R302 R310 R312 R315:R316 R323 R338 R342 R344 R347 R350 R357" type="list">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>Maintenance,Operation,Standby,"Standby, Operation","Standby, Maintenance","Operation, Maintenance","Standby, Operation, Maintenance",Actual Plant Outage</x12ac:list>
